--- a/reports/results_ref_dataset_rede_1.xlsx
+++ b/reports/results_ref_dataset_rede_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5B5F45-5520-4862-9A6F-CA04E78CF8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DF8C7-3F20-45C5-B04B-CDFA06FD38A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>25_epochs_weights</t>
   </si>
@@ -70,6 +69,18 @@
   </si>
   <si>
     <t>25_epochs_no_weights</t>
+  </si>
+  <si>
+    <t>F(x1, x2)</t>
+  </si>
+  <si>
+    <t>F(p1*x1, p2*x2)</t>
+  </si>
+  <si>
+    <t>pi = Total_len/Class_i_len</t>
+  </si>
+  <si>
+    <t>pi = sqrt(Total_len/Class_i_len)</t>
   </si>
 </sst>
 </file>
@@ -444,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,6 +891,24 @@
         <v>0.89459999999999995</v>
       </c>
     </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
